--- a/data/HNa_Luna.xlsx
+++ b/data/HNa_Luna.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DF3D9-5895-364F-800E-BE4474C1E624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$176</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="24">
   <si>
     <t>Na</t>
   </si>
@@ -64,10 +70,6 @@
     <t>dA[2,3,0,7]</t>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,12 +93,32 @@
     <t>limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_Na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ismax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,88 +474,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1">
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>586.95627999999999</v>
+      </c>
+      <c r="B2">
+        <v>106208087.9707031</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>H2-I2</f>
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>575.96601999999996</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>92850619.984375</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1">
-      <c r="A3">
-        <v>586.95627999999999</v>
-      </c>
-      <c r="B3">
-        <v>106208087.9707031</v>
-      </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -544,230 +595,347 @@
       <c r="H3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>H3-I3</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>535.98728000000006</v>
+      </c>
+      <c r="B4">
+        <v>83820925.421875</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>H4-I4</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>546.97803999999996</v>
+      </c>
+      <c r="B5">
+        <v>74643251.75390625</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>H5-I5</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>597.94705999999996</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>68987246.2265625</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1">
-      <c r="A5">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>H6-I6</f>
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>557.96876999999995</v>
+      </c>
+      <c r="B7">
+        <v>45156185.490234382</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>H7-I7</f>
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>608.93831</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>44188382.979492188</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1">
-      <c r="A6">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>H8-I8</f>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>568.96034999999995</v>
+      </c>
+      <c r="B9">
+        <v>30057666.1328125</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>H9-I9</f>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>619.92924000000005</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>29977200.51708984</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1">
-      <c r="A7">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>H10-I10</f>
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>630.92019000000005</v>
       </c>
-      <c r="B7">
+      <c r="B11">
         <v>20106450.360107418</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1">
-      <c r="A8">
-        <v>641.91111999999998</v>
-      </c>
-      <c r="B8">
-        <v>12287012.130859381</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1">
-      <c r="A9">
-        <v>535.98728000000006</v>
-      </c>
-      <c r="B9">
-        <v>83820925.421875</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1">
-      <c r="A10">
-        <v>546.97803999999996</v>
-      </c>
-      <c r="B10">
-        <v>74643251.75390625</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1">
-      <c r="A11">
-        <v>557.96876999999995</v>
-      </c>
-      <c r="B11">
-        <v>45156185.490234382</v>
-      </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f>H11-I11</f>
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>568.96034999999995</v>
+        <v>579.95105999999998</v>
       </c>
       <c r="B12">
-        <v>30057666.1328125</v>
+        <v>19192835.78662109</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -778,34 +946,60 @@
       <c r="H12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1">
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>H12-I12</f>
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>579.95105999999998</v>
+        <v>496.00835999999998</v>
       </c>
       <c r="B13">
-        <v>19192835.78662109</v>
+        <v>13993953.842041019</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f>H13-I13</f>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>590.94176000000004</v>
       </c>
@@ -830,34 +1024,60 @@
       <c r="H14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1">
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f>H14-I14</f>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>496.00835999999998</v>
+        <v>641.91111999999998</v>
       </c>
       <c r="B15">
-        <v>13993953.842041019</v>
+        <v>12287012.130859381</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f>H15-I15</f>
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>506.99900000000002</v>
       </c>
@@ -882,8 +1102,21 @@
       <c r="H16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f>H16-I16</f>
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>517.99031000000002</v>
       </c>
@@ -908,138 +1141,216 @@
       <c r="H17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f>H17-I17</f>
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>537.98656000000005</v>
+      </c>
+      <c r="B18">
+        <v>3264580.09765625</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f>H18-I18</f>
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>528.98080000000004</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2815654.455078125</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1">
-      <c r="A19">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f>H19-I19</f>
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>548.97877000000005</v>
+      </c>
+      <c r="B20">
+        <v>2762710.119140625</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <f>H20-I20</f>
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>526.98181</v>
+      </c>
+      <c r="B21">
+        <v>2275391.4018554692</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <f>H21-I21</f>
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>539.97248000000002</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>1673474.0528564451</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1">
-      <c r="A20">
-        <v>526.98181</v>
-      </c>
-      <c r="B20">
-        <v>2275391.4018554692</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1">
-      <c r="A21">
-        <v>537.98656000000005</v>
-      </c>
-      <c r="B21">
-        <v>3264580.09765625</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1">
-      <c r="A22">
-        <v>548.97877000000005</v>
-      </c>
-      <c r="B22">
-        <v>2762710.119140625</v>
-      </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <f>H22-I22</f>
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>559.97036000000003</v>
       </c>
@@ -1064,8 +1375,21 @@
       <c r="H23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1">
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f>H23-I23</f>
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>570.96043999999995</v>
       </c>
@@ -1090,8 +1414,21 @@
       <c r="H24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <f>H24-I24</f>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>581.94943000000001</v>
       </c>
@@ -1116,8 +1453,21 @@
       <c r="H25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1">
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <f>H25-I25</f>
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>575.96677</v>
       </c>
@@ -1142,8 +1492,21 @@
       <c r="H26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1">
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f>H26-I26</f>
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>586.95594000000006</v>
       </c>
@@ -1168,8 +1531,21 @@
       <c r="H27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1">
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f>H27-I27</f>
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>597.94650000000001</v>
       </c>
@@ -1194,8 +1570,21 @@
       <c r="H28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1">
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <f>H28-I28</f>
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>608.93808999999999</v>
       </c>
@@ -1220,8 +1609,21 @@
       <c r="H29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1">
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <f>H29-I29</f>
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>619.92911000000004</v>
       </c>
@@ -1246,112 +1648,177 @@
       <c r="H30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1">
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <f>H30-I30</f>
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>535.98712</v>
+      </c>
+      <c r="B31">
+        <v>43062816.891601563</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <f>H31-I31</f>
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>546.97815000000003</v>
+      </c>
+      <c r="B32">
+        <v>27813022.936523441</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <f>H32-I32</f>
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>630.92012999999997</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>26081387.3671875</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1">
-      <c r="A32">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <f>H33-I33</f>
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>641.91130999999996</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>18791135.8515625</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1">
-      <c r="A33">
-        <v>535.98712</v>
-      </c>
-      <c r="B33">
-        <v>43062816.891601562</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1">
-      <c r="A34">
-        <v>546.97815000000003</v>
-      </c>
-      <c r="B34">
-        <v>27813022.936523441</v>
-      </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f>H34-I34</f>
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>557.96893999999998</v>
       </c>
@@ -1376,8 +1843,21 @@
       <c r="H35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1">
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <f>H35-I35</f>
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>568.96100999999999</v>
       </c>
@@ -1402,138 +1882,216 @@
       <c r="H36">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1">
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <f>H36-I36</f>
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>496.00826000000001</v>
+      </c>
+      <c r="B37">
+        <v>6740531.412109375</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <f>H37-I37</f>
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>579.95030999999994</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>3661148.3289031978</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
-      <c r="H37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1">
-      <c r="A38">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <f>H38-I38</f>
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>506.99948000000001</v>
+      </c>
+      <c r="B39">
+        <v>3604323.5112304692</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <f>H39-I39</f>
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>517.99009000000001</v>
+      </c>
+      <c r="B40">
+        <v>2344415.0275878911</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <f>H40-I40</f>
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>590.94110999999998</v>
       </c>
-      <c r="B38">
+      <c r="B41">
         <v>2109037.4692382808</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1">
-      <c r="A39">
-        <v>496.00826000000001</v>
-      </c>
-      <c r="B39">
-        <v>6740531.412109375</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>7</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1">
-      <c r="A40">
-        <v>506.99948000000001</v>
-      </c>
-      <c r="B40">
-        <v>3604323.5112304692</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1">
-      <c r="A41">
-        <v>517.99009000000001</v>
-      </c>
-      <c r="B41">
-        <v>2344415.0275878911</v>
-      </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <f>H41-I41</f>
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>528.98023999999998</v>
       </c>
@@ -1558,8 +2116,21 @@
       <c r="H42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1">
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <f>H42-I42</f>
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>575.96622000000002</v>
       </c>
@@ -1584,8 +2155,21 @@
       <c r="H43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1">
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <f>H43-I43</f>
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>586.95713999999998</v>
       </c>
@@ -1610,204 +2194,308 @@
       <c r="H44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1">
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <f>H44-I44</f>
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>535.98775000000001</v>
+      </c>
+      <c r="B45">
+        <v>6243037.333984375</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <f>H45-I45</f>
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>597.94748000000004</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>4723867.833984375</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>8</v>
-      </c>
-      <c r="H45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1">
-      <c r="A46">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <f>H46-I46</f>
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>546.97835999999995</v>
+      </c>
+      <c r="B47">
+        <v>4538797.046875</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <f>H47-I47</f>
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>608.93849999999998</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>2888097.8236694341</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>8</v>
-      </c>
-      <c r="H46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1">
-      <c r="A47">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <f>H48-I48</f>
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>557.96883000000003</v>
+      </c>
+      <c r="B49">
+        <v>2419352.8996582031</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <f>H49-I49</f>
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>496.00885</v>
+      </c>
+      <c r="B50">
+        <v>2170436.600585938</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <f>H50-I50</f>
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>619.92926999999997</v>
       </c>
-      <c r="B47">
+      <c r="B51">
         <v>1742784.933105469</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>8</v>
-      </c>
-      <c r="H47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1">
-      <c r="A48">
-        <v>630.92034000000001</v>
-      </c>
-      <c r="B48">
-        <v>1078424.309570312</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>7</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>8</v>
-      </c>
-      <c r="H48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1">
-      <c r="A49">
-        <v>641.91166999999996</v>
-      </c>
-      <c r="B49">
-        <v>816494.21630859375</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>8</v>
-      </c>
-      <c r="H49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1">
-      <c r="A50">
-        <v>535.98775000000001</v>
-      </c>
-      <c r="B50">
-        <v>6243037.333984375</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>9</v>
-      </c>
-      <c r="H50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1">
-      <c r="A51">
-        <v>546.97835999999995</v>
-      </c>
-      <c r="B51">
-        <v>4538797.046875</v>
-      </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <f>H51-I51</f>
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>557.96883000000003</v>
+        <v>568.96038999999996</v>
       </c>
       <c r="B52">
-        <v>2419352.8996582031</v>
+        <v>1611229.8497314451</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>2</v>
@@ -1818,74 +2506,113 @@
       <c r="H52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1">
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <f>H52-I52</f>
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>568.96038999999996</v>
+        <v>506.9991</v>
       </c>
       <c r="B53">
-        <v>1611229.8497314451</v>
+        <v>1122419.196289062</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <f>H53-I53</f>
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>630.92034000000001</v>
+      </c>
+      <c r="B54">
+        <v>1078424.309570312</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <f>H54-I54</f>
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>579.95128</v>
       </c>
-      <c r="B54">
-        <v>986002.21313476562</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>6</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-      <c r="F54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>9</v>
-      </c>
-      <c r="H54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1">
-      <c r="A55">
-        <v>590.94262000000003</v>
-      </c>
       <c r="B55">
-        <v>628596.40576171875</v>
+        <v>986002.21313476563</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>2</v>
@@ -1896,126 +2623,191 @@
       <c r="H55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1">
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <f>H55-I55</f>
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>496.00885</v>
+        <v>641.91166999999996</v>
       </c>
       <c r="B56">
-        <v>2170436.600585938</v>
+        <v>816494.21630859375</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <f>H56-I56</f>
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>506.9991</v>
+        <v>526.99526000000003</v>
       </c>
       <c r="B57">
-        <v>1122419.196289062</v>
+        <v>755480.6416015625</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <f>H57-I57</f>
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>537.98568999999998</v>
+      </c>
+      <c r="B58">
+        <v>664405.3330078125</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <f>H58-I58</f>
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>590.94262000000003</v>
+      </c>
+      <c r="B59">
+        <v>628596.40576171875</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <f>H59-I59</f>
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>517.99032999999997</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>618470.388671875</v>
       </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1">
-      <c r="A59">
-        <v>528.98593000000005</v>
-      </c>
-      <c r="B59">
-        <v>467995.2255859375</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1">
-      <c r="A60">
-        <v>539.97308999999996</v>
-      </c>
-      <c r="B60">
-        <v>271194.27270507812</v>
-      </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
@@ -2026,48 +2818,74 @@
       <c r="H60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1">
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <f>H60-I60</f>
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>526.99526000000003</v>
+        <v>528.98593000000005</v>
       </c>
       <c r="B61">
-        <v>755480.6416015625</v>
+        <v>467995.2255859375</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <f>H61-I61</f>
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>537.98568999999998</v>
+        <v>548.97832000000005</v>
       </c>
       <c r="B62">
-        <v>664405.3330078125</v>
+        <v>379517.9118347168</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
@@ -2078,34 +2896,60 @@
       <c r="H62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1">
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <f>H62-I62</f>
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>548.97832000000005</v>
+        <v>539.97308999999996</v>
       </c>
       <c r="B63">
-        <v>379517.9118347168</v>
+        <v>271194.27270507813</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <f>H63-I63</f>
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>559.95561999999995</v>
       </c>
@@ -2130,13 +2974,26 @@
       <c r="H64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1">
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <f>H64-I64</f>
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>570.96074999999996</v>
       </c>
       <c r="B65">
-        <v>54730.846801757812</v>
+        <v>54730.846801757813</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -2156,48 +3013,74 @@
       <c r="H65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1">
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <f>H65-I65</f>
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>596.96073999999999</v>
+      </c>
+      <c r="B66">
+        <v>9868928.7375488281</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>13</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <f>H66-I66</f>
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>575.96642999999995</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>7391801.7626953116</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>12</v>
-      </c>
-      <c r="H66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1">
-      <c r="A67">
-        <v>586.95671000000004</v>
-      </c>
-      <c r="B67">
-        <v>5607206.8525390616</v>
-      </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
         <v>1</v>
@@ -2208,22 +3091,35 @@
       <c r="H67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1">
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <f>H67-I67</f>
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>597.95021999999994</v>
+        <v>586.95671000000004</v>
       </c>
       <c r="B68">
-        <v>3105947.543945312</v>
+        <v>5607206.8525390616</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>1</v>
@@ -2234,100 +3130,152 @@
       <c r="H68">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1">
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <f>H68-I68</f>
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>608.94214999999997</v>
+        <v>607.95228999999995</v>
       </c>
       <c r="B69">
-        <v>1883106.5933227539</v>
+        <v>5573790.4228515616</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1">
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <f>H69-I69</f>
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>619.92843000000005</v>
+        <v>535.98776999999995</v>
       </c>
       <c r="B70">
-        <v>1243707.1906738279</v>
+        <v>3871021.7026367192</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H70">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" hidden="1">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <f>H70-I70</f>
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>630.91957000000002</v>
+        <v>618.94326000000001</v>
       </c>
       <c r="B71">
-        <v>663906.49945068359</v>
+        <v>3326998.1700439448</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" hidden="1">
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <f>H71-I71</f>
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>641.91030999999998</v>
+        <v>597.95021999999994</v>
       </c>
       <c r="B72">
-        <v>504275.228515625</v>
+        <v>3105947.543945312</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>1</v>
@@ -2338,13 +3286,26 @@
       <c r="H72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1">
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <f>H72-I72</f>
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>596.96073999999999</v>
+        <v>556.98266999999998</v>
       </c>
       <c r="B73">
-        <v>9868928.7375488281</v>
+        <v>2855865.5367431641</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -2356,198 +3317,302 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <f>H73-I73</f>
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>546.97855000000004</v>
+      </c>
+      <c r="B74">
+        <v>2555325.0756835942</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <v>7</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <f>H74-I74</f>
+        <v>5</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>608.94214999999997</v>
+      </c>
+      <c r="B75">
+        <v>1883106.5933227539</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>12</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <f>H75-I75</f>
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>567.97289000000001</v>
+      </c>
+      <c r="B76">
+        <v>1696532.19140625</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>7</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <f>H76-I76</f>
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>557.96909000000005</v>
+      </c>
+      <c r="B77">
+        <v>1458567.87109375</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>14</v>
+      </c>
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <f>H77-I77</f>
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>578.96343000000002</v>
+      </c>
+      <c r="B78">
+        <v>1337902.951171875</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>7</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <f>H78-I78</f>
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>619.92843000000005</v>
+      </c>
+      <c r="B79">
+        <v>1243707.1906738279</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <f>H79-I79</f>
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>651.91636000000005</v>
+      </c>
+      <c r="B80">
+        <v>824720.77301025391</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80">
         <v>13</v>
       </c>
-      <c r="H73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1">
-      <c r="A74">
-        <v>607.95228999999995</v>
-      </c>
-      <c r="B74">
-        <v>5573790.4228515616</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74">
-        <v>13</v>
-      </c>
-      <c r="H74">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1">
-      <c r="A75">
-        <v>618.94326000000001</v>
-      </c>
-      <c r="B75">
-        <v>3326998.1700439448</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75">
-        <v>13</v>
-      </c>
-      <c r="H75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1">
-      <c r="A76">
-        <v>640.94965999999999</v>
-      </c>
-      <c r="B76">
-        <v>429440.30981445312</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>6</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76">
-        <v>13</v>
-      </c>
-      <c r="H76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1">
-      <c r="A77">
-        <v>651.91636000000005</v>
-      </c>
-      <c r="B77">
-        <v>824720.77301025391</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>7</v>
-      </c>
-      <c r="E77">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77">
-        <v>13</v>
-      </c>
-      <c r="H77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1">
-      <c r="A78">
-        <v>535.98776999999995</v>
-      </c>
-      <c r="B78">
-        <v>3871021.7026367192</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>2</v>
-      </c>
-      <c r="G78">
-        <v>14</v>
-      </c>
-      <c r="H78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1">
-      <c r="A79">
-        <v>546.97855000000004</v>
-      </c>
-      <c r="B79">
-        <v>2555325.0756835942</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79">
-        <v>14</v>
-      </c>
-      <c r="H79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1">
-      <c r="A80">
-        <v>557.96909000000005</v>
-      </c>
-      <c r="B80">
-        <v>1458567.87109375</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80">
-        <v>14</v>
-      </c>
       <c r="H80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f>H80-I80</f>
+        <v>6</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>568.96022000000005</v>
       </c>
@@ -2572,204 +3637,308 @@
       <c r="H81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1">
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <f>H81-I81</f>
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>630.91957000000002</v>
+      </c>
+      <c r="B82">
+        <v>663906.49945068359</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>12</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <f>H82-I82</f>
+        <v>6</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>526.99847999999997</v>
+      </c>
+      <c r="B83">
+        <v>596831.07275390625</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>7</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <f>H83-I83</f>
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>537.98711000000003</v>
+      </c>
+      <c r="B84">
+        <v>575123.6555480957</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>7</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <f>H84-I84</f>
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>641.91030999999998</v>
+      </c>
+      <c r="B85">
+        <v>504275.228515625</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <f>H85-I85</f>
+        <v>6</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>640.94965999999999</v>
+      </c>
+      <c r="B86">
+        <v>429440.30981445313</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>13</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <f>H86-I86</f>
+        <v>6</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>579.95155999999997</v>
       </c>
-      <c r="B82">
+      <c r="B87">
         <v>428767.60986328119</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>6</v>
-      </c>
-      <c r="E82">
-        <v>4</v>
-      </c>
-      <c r="F82" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82">
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87">
         <v>14</v>
       </c>
-      <c r="H82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1">
-      <c r="A83">
-        <v>590.94380000000001</v>
-      </c>
-      <c r="B83">
-        <v>280116.54638671881</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>7</v>
-      </c>
-      <c r="E83">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>14</v>
-      </c>
-      <c r="H83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1">
-      <c r="A84">
-        <v>556.98266999999998</v>
-      </c>
-      <c r="B84">
-        <v>2855865.5367431641</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84">
+      <c r="H87">
+        <v>7</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <f>H87-I87</f>
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>600.94547999999998</v>
+      </c>
+      <c r="B88">
+        <v>399949.8369140625</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88">
         <v>15</v>
       </c>
-      <c r="H84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1">
-      <c r="A85">
-        <v>567.97289000000001</v>
-      </c>
-      <c r="B85">
-        <v>1696532.19140625</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85">
-        <v>15</v>
-      </c>
-      <c r="H85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1">
-      <c r="A86">
-        <v>578.96343000000002</v>
-      </c>
-      <c r="B86">
-        <v>1337902.951171875</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>4</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86">
-        <v>15</v>
-      </c>
-      <c r="H86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1">
-      <c r="A87">
-        <v>600.94547999999998</v>
-      </c>
-      <c r="B87">
-        <v>399949.8369140625</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>6</v>
-      </c>
-      <c r="E87">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87">
-        <v>15</v>
-      </c>
-      <c r="H87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1">
-      <c r="A88">
-        <v>526.99847999999997</v>
-      </c>
-      <c r="B88">
-        <v>596831.07275390625</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88">
-        <v>16</v>
-      </c>
       <c r="H88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1">
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <f>H88-I88</f>
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>537.98711000000003</v>
+        <v>548.97887000000003</v>
       </c>
       <c r="B89">
-        <v>575123.6555480957</v>
+        <v>356710.08361816412</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>4</v>
@@ -2780,34 +3949,60 @@
       <c r="H89">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1">
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <f>H89-I89</f>
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>548.97887000000003</v>
+        <v>590.94380000000001</v>
       </c>
       <c r="B90">
-        <v>356710.08361816412</v>
+        <v>280116.54638671881</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1">
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <f>H90-I90</f>
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>559.95504000000005</v>
       </c>
@@ -2832,13 +4027,26 @@
       <c r="H91">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1">
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <f>H91-I91</f>
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>570.96285</v>
       </c>
       <c r="B92">
-        <v>55650.859497070312</v>
+        <v>55650.859497070313</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -2858,13 +4066,26 @@
       <c r="H92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1">
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <f>H92-I92</f>
+        <v>5</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>575.96658000000002</v>
       </c>
       <c r="B93">
-        <v>4606042.3852539062</v>
+        <v>4606042.3852539063</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -2884,8 +4105,21 @@
       <c r="H93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1">
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <f>H93-I93</f>
+        <v>6</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>586.95737999999994</v>
       </c>
@@ -2910,48 +4144,74 @@
       <c r="H94">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1">
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <f>H94-I94</f>
+        <v>6</v>
+      </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>535.98784000000001</v>
+      </c>
+      <c r="B95">
+        <v>2205208.3790206909</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>18</v>
+      </c>
+      <c r="H95">
+        <v>7</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <f>H95-I95</f>
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>597.94784000000004</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>1861959.198242188</v>
       </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>17</v>
-      </c>
-      <c r="H95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1">
-      <c r="A96">
-        <v>608.93889999999999</v>
-      </c>
-      <c r="B96">
-        <v>1006204.798400879</v>
-      </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -2962,48 +4222,74 @@
       <c r="H96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1">
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <f>H96-I96</f>
+        <v>6</v>
+      </c>
+      <c r="K96">
+        <v>5</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>619.92942000000005</v>
+        <v>546.97874000000002</v>
       </c>
       <c r="B97">
-        <v>636191.12866210938</v>
+        <v>1309594.020629883</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1">
+        <v>7</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <f>H97-I97</f>
+        <v>5</v>
+      </c>
+      <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>630.92048999999997</v>
+        <v>608.93889999999999</v>
       </c>
       <c r="B98">
-        <v>387776.10211181641</v>
+        <v>1006204.798400879</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>1</v>
@@ -3014,74 +4300,113 @@
       <c r="H98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1">
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <f>H98-I98</f>
+        <v>6</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>641.91125999999997</v>
+        <v>557.96912999999995</v>
       </c>
       <c r="B99">
-        <v>216358.74407958979</v>
+        <v>680660.337890625</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99">
+        <v>18</v>
+      </c>
+      <c r="H99">
+        <v>7</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <f>H99-I99</f>
+        <v>5</v>
+      </c>
+      <c r="K99">
+        <v>5</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>619.92942000000005</v>
+      </c>
+      <c r="B100">
+        <v>636191.12866210938</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100">
         <v>17</v>
       </c>
-      <c r="H99">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1">
-      <c r="A100">
-        <v>535.98784000000001</v>
-      </c>
-      <c r="B100">
-        <v>2205208.3790206909</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100">
-        <v>18</v>
-      </c>
       <c r="H100">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <f>H100-I100</f>
+        <v>6</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>546.97874000000002</v>
+        <v>568.96082999999999</v>
       </c>
       <c r="B101">
-        <v>1309594.020629883</v>
+        <v>458515.78369140619</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>2</v>
@@ -3092,48 +4417,74 @@
       <c r="H101">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1">
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <f>H101-I101</f>
+        <v>5</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>557.96912999999995</v>
+        <v>630.92048999999997</v>
       </c>
       <c r="B102">
-        <v>680660.337890625</v>
+        <v>387776.10211181641</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H102">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <f>H102-I102</f>
+        <v>6</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>568.96082999999999</v>
+        <v>579.95119999999997</v>
       </c>
       <c r="B103">
-        <v>458515.78369140619</v>
+        <v>232506.84509277341</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
         <v>2</v>
@@ -3144,34 +4495,60 @@
       <c r="H103">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1">
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <f>H103-I103</f>
+        <v>5</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>579.95119999999997</v>
+        <v>641.91125999999997</v>
       </c>
       <c r="B104">
-        <v>232506.84509277341</v>
+        <v>216358.74407958979</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H104">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1">
+        <v>8</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <f>H104-I104</f>
+        <v>6</v>
+      </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>590.94133999999997</v>
       </c>
@@ -3196,8 +4573,21 @@
       <c r="H105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1">
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <f>H105-I105</f>
+        <v>5</v>
+      </c>
+      <c r="K105">
+        <v>5</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>504.00925999999998</v>
       </c>
@@ -3222,22 +4612,35 @@
       <c r="H106">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1">
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <f>H106-I106</f>
+        <v>6</v>
+      </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>511.33623999999998</v>
+        <v>518.64777000000004</v>
       </c>
       <c r="B107">
-        <v>1192859.860351562</v>
+        <v>1588393.701156616</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
         <v>7</v>
@@ -3248,22 +4651,35 @@
       <c r="H107">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1">
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107">
+        <f>H107-I107</f>
+        <v>6</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>518.64777000000004</v>
+        <v>511.33623999999998</v>
       </c>
       <c r="B108">
-        <v>1588393.701156616</v>
+        <v>1192859.860351562</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
         <v>7</v>
@@ -3274,22 +4690,35 @@
       <c r="H108">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" hidden="1">
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <f>H108-I108</f>
+        <v>6</v>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>525.99355000000003</v>
+        <v>756.51637000000005</v>
       </c>
       <c r="B109">
-        <v>466894.7255859375</v>
+        <v>1137067.0302124021</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
@@ -3300,22 +4729,35 @@
       <c r="H109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1">
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <f>H109-I109</f>
+        <v>6</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>533.32025999999996</v>
+        <v>767.50599999999997</v>
       </c>
       <c r="B110">
-        <v>361769.37060546881</v>
+        <v>892989.42431640625</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>7</v>
@@ -3326,22 +4768,35 @@
       <c r="H110">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1">
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <f>H110-I110</f>
+        <v>6</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>540.64567</v>
+        <v>778.49572000000001</v>
       </c>
       <c r="B111">
-        <v>205279.073059082</v>
+        <v>703447.40942382813</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
@@ -3352,22 +4807,35 @@
       <c r="H111">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1">
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <f>H111-I111</f>
+        <v>6</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>547.98014000000001</v>
+        <v>525.99355000000003</v>
       </c>
       <c r="B112">
-        <v>132064.0935058594</v>
+        <v>466894.7255859375</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
@@ -3378,22 +4846,35 @@
       <c r="H112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" hidden="1">
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <f>H112-I112</f>
+        <v>6</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>756.51637000000005</v>
+        <v>789.48586999999998</v>
       </c>
       <c r="B113">
-        <v>1137067.0302124021</v>
+        <v>368693.57763671881</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
@@ -3404,22 +4885,35 @@
       <c r="H113">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1">
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <f>H113-I113</f>
+        <v>6</v>
+      </c>
+      <c r="K113">
+        <v>6</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>767.50599999999997</v>
+        <v>533.32025999999996</v>
       </c>
       <c r="B114">
-        <v>892989.42431640625</v>
+        <v>361769.37060546881</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
@@ -3430,22 +4924,35 @@
       <c r="H114">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" hidden="1">
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <f>H114-I114</f>
+        <v>6</v>
+      </c>
+      <c r="K114">
+        <v>6</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>778.49572000000001</v>
+        <v>811.47837000000004</v>
       </c>
       <c r="B115">
-        <v>703447.40942382812</v>
+        <v>333186.498046875</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
@@ -3456,22 +4963,35 @@
       <c r="H115">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" hidden="1">
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <f>H115-I115</f>
+        <v>6</v>
+      </c>
+      <c r="K115">
+        <v>6</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>789.48586999999998</v>
+        <v>540.64567</v>
       </c>
       <c r="B116">
-        <v>368693.57763671881</v>
+        <v>205279.073059082</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
@@ -3482,8 +5002,21 @@
       <c r="H116">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1">
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <f>H116-I116</f>
+        <v>6</v>
+      </c>
+      <c r="K116">
+        <v>6</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>800.48701000000005</v>
       </c>
@@ -3508,22 +5041,35 @@
       <c r="H117">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1">
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <f>H117-I117</f>
+        <v>6</v>
+      </c>
+      <c r="K117">
+        <v>6</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>811.47837000000004</v>
+        <v>822.47042999999996</v>
       </c>
       <c r="B118">
-        <v>333186.498046875</v>
+        <v>134880.5295410156</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F118" t="s">
         <v>7</v>
@@ -3534,19 +5080,32 @@
       <c r="H118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1">
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <f>H118-I118</f>
+        <v>6</v>
+      </c>
+      <c r="K118">
+        <v>6</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>822.47042999999996</v>
+        <v>547.98014000000001</v>
       </c>
       <c r="B119">
-        <v>134880.5295410156</v>
+        <v>132064.0935058594</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E119">
         <v>6</v>
@@ -3560,8 +5119,21 @@
       <c r="H119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1">
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <f>H119-I119</f>
+        <v>6</v>
+      </c>
+      <c r="K119">
+        <v>6</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>543.31140000000005</v>
       </c>
@@ -3586,48 +5158,74 @@
       <c r="H120">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" hidden="1">
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <f>H120-I120</f>
+        <v>8</v>
+      </c>
+      <c r="K120">
+        <v>8</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
+        <v>516.65783999999996</v>
+      </c>
+      <c r="B121">
+        <v>122334262.453125</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121">
+        <v>21</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121">
+        <f>H121-I121</f>
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>8</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>550.63610000000006</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>84000485.75</v>
       </c>
-      <c r="C121">
-        <v>3</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121">
-        <v>20</v>
-      </c>
-      <c r="H121">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" hidden="1">
-      <c r="A122">
-        <v>557.96304999999995</v>
-      </c>
-      <c r="B122">
-        <v>33925242.881347664</v>
-      </c>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122" t="s">
         <v>8</v>
@@ -3638,48 +5236,74 @@
       <c r="H122">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1">
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <f>H122-I122</f>
+        <v>8</v>
+      </c>
+      <c r="K122">
+        <v>8</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>565.29070999999999</v>
+        <v>523.98409000000004</v>
       </c>
       <c r="B123">
-        <v>14934407.345703119</v>
+        <v>42039416.954956047</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G123">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H123">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1">
+        <v>10</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <f>H123-I123</f>
+        <v>7</v>
+      </c>
+      <c r="K123">
+        <v>8</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>572.61842999999999</v>
+        <v>557.96304999999995</v>
       </c>
       <c r="B124">
-        <v>5424090.3732910156</v>
+        <v>33925242.881347664</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
         <v>8</v>
@@ -3690,48 +5314,74 @@
       <c r="H124">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1">
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <f>H124-I124</f>
+        <v>8</v>
+      </c>
+      <c r="K124">
+        <v>8</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>579.94578999999999</v>
+        <v>531.31183999999996</v>
       </c>
       <c r="B125">
-        <v>3464976.09375</v>
+        <v>16923804.00390625</v>
       </c>
       <c r="C125">
         <v>3</v>
       </c>
       <c r="D125">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G125">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H125">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" hidden="1">
+        <v>10</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <f>H125-I125</f>
+        <v>7</v>
+      </c>
+      <c r="K125">
+        <v>8</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>587.27302999999995</v>
+        <v>565.29070999999999</v>
       </c>
       <c r="B126">
-        <v>1442084.015625</v>
+        <v>14934407.345703119</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F126" t="s">
         <v>8</v>
@@ -3742,91 +5392,143 @@
       <c r="H126">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1">
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <f>H126-I126</f>
+        <v>8</v>
+      </c>
+      <c r="K126">
+        <v>8</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>594.60108000000002</v>
+        <v>775.48920999999996</v>
       </c>
       <c r="B127">
-        <v>670857.79846191406</v>
+        <v>12868399.126953119</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127">
+        <v>21</v>
+      </c>
+      <c r="H127">
         <v>10</v>
       </c>
-      <c r="E127">
-        <v>7</v>
-      </c>
-      <c r="F127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127">
-        <v>20</v>
-      </c>
-      <c r="H127">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1">
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127">
+        <f>H127-I127</f>
+        <v>7</v>
+      </c>
+      <c r="K127">
+        <v>8</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>815.46681000000001</v>
+        <v>786.47999000000004</v>
       </c>
       <c r="B128">
-        <v>1438152.2265625</v>
+        <v>9749813.2880859375</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G128">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H128">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1">
+        <v>10</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <f>H128-I128</f>
+        <v>7</v>
+      </c>
+      <c r="K128">
+        <v>8</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>826.45872999999995</v>
+        <v>538.64022999999997</v>
       </c>
       <c r="B129">
-        <v>3321287.569335938</v>
+        <v>6126907.4716796884</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G129">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H129">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <f>H129-I129</f>
+        <v>7</v>
+      </c>
+      <c r="K129">
+        <v>8</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>837.44911999999999</v>
+        <v>797.47099000000003</v>
       </c>
       <c r="B130">
-        <v>3094561.592773438</v>
+        <v>5441191.2734375</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -3838,30 +5540,43 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G130">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H130">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1">
+        <v>10</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <f>H130-I130</f>
+        <v>7</v>
+      </c>
+      <c r="K130">
+        <v>8</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>848.43985999999995</v>
+        <v>572.61842999999999</v>
       </c>
       <c r="B131">
-        <v>1866911.0078125</v>
+        <v>5424090.3732910156</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F131" t="s">
         <v>8</v>
@@ -3872,123 +5587,188 @@
       <c r="H131">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1">
+      <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131">
+        <f>H131-I131</f>
+        <v>8</v>
+      </c>
+      <c r="K131">
+        <v>8</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>859.43128999999999</v>
+        <v>545.96528999999998</v>
       </c>
       <c r="B132">
-        <v>677659.78283691406</v>
+        <v>3571590.893554688</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E132">
         <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G132">
+        <v>21</v>
+      </c>
+      <c r="H132">
+        <v>10</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132">
+        <f>H132-I132</f>
+        <v>7</v>
+      </c>
+      <c r="K132">
+        <v>8</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>579.94578999999999</v>
+      </c>
+      <c r="B133">
+        <v>3464976.09375</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>8</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133">
         <v>20</v>
       </c>
-      <c r="H132">
+      <c r="H133">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1">
-      <c r="A133">
-        <v>516.65783999999996</v>
-      </c>
-      <c r="B133">
-        <v>122334262.453125</v>
-      </c>
-      <c r="C133">
-        <v>3</v>
-      </c>
-      <c r="D133">
-        <v>3</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133">
-        <v>21</v>
-      </c>
-      <c r="H133">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1">
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133">
+        <f>H133-I133</f>
+        <v>8</v>
+      </c>
+      <c r="K133">
+        <v>8</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>523.98409000000004</v>
+        <v>826.45872999999995</v>
       </c>
       <c r="B134">
-        <v>42039416.954956047</v>
+        <v>3321287.569335938</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G134">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H134">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1">
+        <v>11</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <f>H134-I134</f>
+        <v>8</v>
+      </c>
+      <c r="K134">
+        <v>8</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>531.31183999999996</v>
+        <v>837.44911999999999</v>
       </c>
       <c r="B135">
-        <v>16923804.00390625</v>
+        <v>3094561.592773438</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G135">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H135">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1">
+        <v>11</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <f>H135-I135</f>
+        <v>8</v>
+      </c>
+      <c r="K135">
+        <v>8</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>538.64022999999997</v>
+        <v>808.46213</v>
       </c>
       <c r="B136">
-        <v>6126907.4716796884</v>
+        <v>2150437.6635742192</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -4002,100 +5782,152 @@
       <c r="H136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1">
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136">
+        <f>H136-I136</f>
+        <v>7</v>
+      </c>
+      <c r="K136">
+        <v>8</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>545.96528999999998</v>
+        <v>848.43985999999995</v>
       </c>
       <c r="B137">
-        <v>3571590.893554688</v>
+        <v>1866911.0078125</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F137" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137">
+        <v>20</v>
+      </c>
+      <c r="H137">
+        <v>11</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <f>H137-I137</f>
+        <v>8</v>
+      </c>
+      <c r="K137">
+        <v>8</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>587.27302999999995</v>
+      </c>
+      <c r="B138">
+        <v>1442084.015625</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
         <v>9</v>
       </c>
-      <c r="G137">
-        <v>21</v>
-      </c>
-      <c r="H137">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1">
-      <c r="A138">
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138">
+        <v>20</v>
+      </c>
+      <c r="H138">
+        <v>11</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <f>H138-I138</f>
+        <v>8</v>
+      </c>
+      <c r="K138">
+        <v>8</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>815.46681000000001</v>
+      </c>
+      <c r="B139">
+        <v>1438152.2265625</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139">
+        <v>20</v>
+      </c>
+      <c r="H139">
+        <v>11</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <f>H139-I139</f>
+        <v>8</v>
+      </c>
+      <c r="K139">
+        <v>8</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>553.29371000000003</v>
       </c>
-      <c r="B138">
+      <c r="B140">
         <v>1287519.433105469</v>
       </c>
-      <c r="C138">
-        <v>3</v>
-      </c>
-      <c r="D138">
-        <v>8</v>
-      </c>
-      <c r="E138">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138">
-        <v>21</v>
-      </c>
-      <c r="H138">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1">
-      <c r="A139">
-        <v>560.61901999999998</v>
-      </c>
-      <c r="B139">
-        <v>1130858.088378906</v>
-      </c>
-      <c r="C139">
-        <v>3</v>
-      </c>
-      <c r="D139">
-        <v>9</v>
-      </c>
-      <c r="E139">
-        <v>6</v>
-      </c>
-      <c r="F139" t="s">
-        <v>9</v>
-      </c>
-      <c r="G139">
-        <v>21</v>
-      </c>
-      <c r="H139">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1">
-      <c r="A140">
-        <v>775.48920999999996</v>
-      </c>
-      <c r="B140">
-        <v>12868399.126953119</v>
-      </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F140" t="s">
         <v>9</v>
@@ -4106,22 +5938,35 @@
       <c r="H140">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1">
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <f>H140-I140</f>
+        <v>7</v>
+      </c>
+      <c r="K140">
+        <v>8</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>786.47999000000004</v>
+        <v>560.61901999999998</v>
       </c>
       <c r="B141">
-        <v>9749813.2880859375</v>
+        <v>1130858.088378906</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F141" t="s">
         <v>9</v>
@@ -4132,22 +5977,35 @@
       <c r="H141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1">
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141">
+        <f>H141-I141</f>
+        <v>7</v>
+      </c>
+      <c r="K141">
+        <v>8</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>797.47099000000003</v>
+        <v>819.45293000000004</v>
       </c>
       <c r="B142">
-        <v>5441191.2734375</v>
+        <v>1003955.1328125</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F142" t="s">
         <v>9</v>
@@ -4158,100 +6016,152 @@
       <c r="H142">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1">
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142">
+        <f>H142-I142</f>
+        <v>7</v>
+      </c>
+      <c r="K142">
+        <v>8</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>808.46213</v>
+        <v>859.43128999999999</v>
       </c>
       <c r="B143">
-        <v>2150437.6635742192</v>
+        <v>677659.78283691406</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143">
+        <v>20</v>
+      </c>
+      <c r="H143">
+        <v>11</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <f>H143-I143</f>
+        <v>8</v>
+      </c>
+      <c r="K143">
+        <v>8</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>594.60108000000002</v>
+      </c>
+      <c r="B144">
+        <v>670857.79846191406</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144">
+        <v>20</v>
+      </c>
+      <c r="H144">
+        <v>11</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <f>H144-I144</f>
+        <v>8</v>
+      </c>
+      <c r="K144">
+        <v>8</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>549.31506000000002</v>
+      </c>
+      <c r="B145">
+        <v>242667960.82128909</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145">
+        <v>23</v>
+      </c>
+      <c r="H145">
+        <v>11</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <f>H145-I145</f>
+        <v>8</v>
+      </c>
+      <c r="K145">
         <v>9</v>
       </c>
-      <c r="G143">
-        <v>21</v>
-      </c>
-      <c r="H143">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1">
-      <c r="A144">
-        <v>819.45293000000004</v>
-      </c>
-      <c r="B144">
-        <v>1003955.1328125</v>
-      </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-      <c r="D144">
-        <v>6</v>
-      </c>
-      <c r="E144">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144">
-        <v>21</v>
-      </c>
-      <c r="H144">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145">
+      <c r="L145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>575.96587999999997</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <v>92990791.234375</v>
       </c>
-      <c r="C145">
-        <v>3</v>
-      </c>
-      <c r="D145">
-        <v>3</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145">
-        <v>22</v>
-      </c>
-      <c r="H145">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146">
-        <v>583.29186000000004</v>
-      </c>
-      <c r="B146">
-        <v>50817484.03125</v>
-      </c>
       <c r="C146">
         <v>3</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -4262,74 +6172,113 @@
       <c r="H146">
         <v>12</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146">
+        <v>3</v>
+      </c>
+      <c r="J146">
+        <f>H146-I146</f>
+        <v>9</v>
+      </c>
+      <c r="K146">
+        <v>9</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>590.61938999999995</v>
+        <v>556.63932999999997</v>
       </c>
       <c r="B147">
-        <v>18564252.346679691</v>
+        <v>90145793.515625</v>
       </c>
       <c r="C147">
         <v>3</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>23</v>
+      </c>
+      <c r="H147">
+        <v>11</v>
+      </c>
+      <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <f>H147-I147</f>
+        <v>8</v>
+      </c>
+      <c r="K147">
+        <v>9</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>522.66078000000005</v>
+      </c>
+      <c r="B148">
+        <v>84337951.7421875</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148">
+        <v>24</v>
+      </c>
+      <c r="H148">
         <v>10</v>
       </c>
-      <c r="G147">
-        <v>22</v>
-      </c>
-      <c r="H147">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148">
-        <v>597.94695000000002</v>
-      </c>
-      <c r="B148">
-        <v>7614933.5</v>
-      </c>
-      <c r="C148">
-        <v>3</v>
-      </c>
-      <c r="D148">
-        <v>6</v>
-      </c>
-      <c r="E148">
-        <v>3</v>
-      </c>
-      <c r="F148" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148">
-        <v>22</v>
-      </c>
-      <c r="H148">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148">
+        <v>3</v>
+      </c>
+      <c r="J148">
+        <f>H148-I148</f>
+        <v>7</v>
+      </c>
+      <c r="K148">
+        <v>9</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>605.27454</v>
+        <v>583.29186000000004</v>
       </c>
       <c r="B149">
-        <v>3576064.00390625</v>
+        <v>50817484.03125</v>
       </c>
       <c r="C149">
         <v>3</v>
       </c>
       <c r="D149">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -4340,100 +6289,152 @@
       <c r="H149">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149">
+        <f>H149-I149</f>
+        <v>9</v>
+      </c>
+      <c r="K149">
+        <v>9</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>612.60132999999996</v>
+        <v>563.96717999999998</v>
       </c>
       <c r="B150">
-        <v>942140.72119140625</v>
+        <v>32037485.4375</v>
       </c>
       <c r="C150">
         <v>3</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>23</v>
+      </c>
+      <c r="H150">
+        <v>11</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <f>H150-I150</f>
+        <v>8</v>
+      </c>
+      <c r="K150">
+        <v>9</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>529.98812999999996</v>
+      </c>
+      <c r="B151">
+        <v>27523486.803710941</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151">
+        <v>24</v>
+      </c>
+      <c r="H151">
         <v>10</v>
       </c>
-      <c r="G150">
+      <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151">
+        <f>H151-I151</f>
+        <v>7</v>
+      </c>
+      <c r="K151">
+        <v>9</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>590.61938999999995</v>
+      </c>
+      <c r="B152">
+        <v>18564252.346679691</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152">
         <v>22</v>
       </c>
-      <c r="H150">
+      <c r="H152">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151">
-        <v>619.92981999999995</v>
-      </c>
-      <c r="B151">
-        <v>515327.12890625</v>
-      </c>
-      <c r="C151">
-        <v>3</v>
-      </c>
-      <c r="D151">
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152">
+        <f>H152-I152</f>
         <v>9</v>
       </c>
-      <c r="E151">
-        <v>6</v>
-      </c>
-      <c r="F151" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151">
-        <v>22</v>
-      </c>
-      <c r="H151">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1">
-      <c r="A152">
-        <v>549.31506000000002</v>
-      </c>
-      <c r="B152">
-        <v>242667960.82128909</v>
-      </c>
-      <c r="C152">
-        <v>3</v>
-      </c>
-      <c r="D152">
-        <v>3</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152">
-        <v>23</v>
-      </c>
-      <c r="H152">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1">
+      <c r="K152">
+        <v>9</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>556.63932999999997</v>
+        <v>571.29526999999996</v>
       </c>
       <c r="B153">
-        <v>90145793.515625</v>
+        <v>11741465.295898439</v>
       </c>
       <c r="C153">
         <v>3</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
@@ -4444,65 +6445,104 @@
       <c r="H153">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1">
+      <c r="I153">
+        <v>3</v>
+      </c>
+      <c r="J153">
+        <f>H153-I153</f>
+        <v>8</v>
+      </c>
+      <c r="K153">
+        <v>9</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>563.96717999999998</v>
+        <v>597.94695000000002</v>
       </c>
       <c r="B154">
-        <v>32037485.4375</v>
+        <v>7614933.5</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G154">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H154">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1">
+        <v>12</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154">
+        <f>H154-I154</f>
+        <v>9</v>
+      </c>
+      <c r="K154">
+        <v>9</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>571.29526999999996</v>
+        <v>537.31555000000003</v>
       </c>
       <c r="B155">
-        <v>11741465.295898439</v>
+        <v>6501848</v>
       </c>
       <c r="C155">
         <v>3</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G155">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1">
+        <v>10</v>
+      </c>
+      <c r="I155">
+        <v>3</v>
+      </c>
+      <c r="J155">
+        <f>H155-I155</f>
+        <v>7</v>
+      </c>
+      <c r="K155">
+        <v>9</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>578.62212</v>
       </c>
       <c r="B156">
-        <v>4714112.6665039062</v>
+        <v>4714112.6665039063</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -4522,126 +6562,191 @@
       <c r="H156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1">
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156">
+        <f>H156-I156</f>
+        <v>8</v>
+      </c>
+      <c r="K156">
+        <v>9</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
+        <v>544.64363000000003</v>
+      </c>
+      <c r="B157">
+        <v>3735245.765625</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157">
+        <v>24</v>
+      </c>
+      <c r="H157">
+        <v>10</v>
+      </c>
+      <c r="I157">
+        <v>3</v>
+      </c>
+      <c r="J157">
+        <f>H157-I157</f>
+        <v>7</v>
+      </c>
+      <c r="K157">
+        <v>9</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>605.27454</v>
+      </c>
+      <c r="B158">
+        <v>3576064.00390625</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158">
+        <v>22</v>
+      </c>
+      <c r="H158">
+        <v>12</v>
+      </c>
+      <c r="I158">
+        <v>3</v>
+      </c>
+      <c r="J158">
+        <f>H158-I158</f>
+        <v>9</v>
+      </c>
+      <c r="K158">
+        <v>9</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>585.94905000000006</v>
       </c>
-      <c r="B157">
+      <c r="B159">
         <v>1845976.40234375</v>
       </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157">
-        <v>8</v>
-      </c>
-      <c r="E157">
-        <v>5</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G157">
+      <c r="G159">
         <v>23</v>
       </c>
-      <c r="H157">
+      <c r="H159">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1">
-      <c r="A158">
-        <v>522.66078000000005</v>
-      </c>
-      <c r="B158">
-        <v>84337951.7421875</v>
-      </c>
-      <c r="C158">
-        <v>3</v>
-      </c>
-      <c r="D158">
-        <v>3</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159">
+        <f>H159-I159</f>
+        <v>8</v>
+      </c>
+      <c r="K159">
+        <v>9</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>612.60132999999996</v>
+      </c>
+      <c r="B160">
+        <v>942140.72119140625</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>8</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <v>22</v>
+      </c>
+      <c r="H160">
         <v>12</v>
       </c>
-      <c r="G158">
-        <v>24</v>
-      </c>
-      <c r="H158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1">
-      <c r="A159">
-        <v>529.98812999999996</v>
-      </c>
-      <c r="B159">
-        <v>27523486.803710941</v>
-      </c>
-      <c r="C159">
-        <v>3</v>
-      </c>
-      <c r="D159">
-        <v>4</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159">
-        <v>24</v>
-      </c>
-      <c r="H159">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1">
-      <c r="A160">
-        <v>537.31555000000003</v>
-      </c>
-      <c r="B160">
-        <v>6501848</v>
-      </c>
-      <c r="C160">
-        <v>3</v>
-      </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-      <c r="E160">
-        <v>2</v>
-      </c>
-      <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160">
-        <v>24</v>
-      </c>
-      <c r="H160">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1">
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <f>H160-I160</f>
+        <v>9</v>
+      </c>
+      <c r="K160">
+        <v>9</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>544.64363000000003</v>
+        <v>551.96815000000004</v>
       </c>
       <c r="B161">
-        <v>3735245.765625</v>
+        <v>862292.15625</v>
       </c>
       <c r="C161">
         <v>3</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F161" t="s">
         <v>12</v>
@@ -4652,34 +6757,60 @@
       <c r="H161">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1">
+      <c r="I161">
+        <v>3</v>
+      </c>
+      <c r="J161">
+        <f>H161-I161</f>
+        <v>7</v>
+      </c>
+      <c r="K161">
+        <v>9</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>551.96815000000004</v>
+        <v>619.92981999999995</v>
       </c>
       <c r="B162">
-        <v>862292.15625</v>
+        <v>515327.12890625</v>
       </c>
       <c r="C162">
         <v>3</v>
       </c>
       <c r="D162">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162">
+        <v>22</v>
+      </c>
+      <c r="H162">
         <v>12</v>
       </c>
-      <c r="G162">
-        <v>24</v>
-      </c>
-      <c r="H162">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1">
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <f>H162-I162</f>
+        <v>9</v>
+      </c>
+      <c r="K162">
+        <v>9</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>566.95407999999998</v>
       </c>
@@ -4704,15 +6835,536 @@
       <c r="H163">
         <v>10</v>
       </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163">
+        <f>H163-I163</f>
+        <v>7</v>
+      </c>
+      <c r="K163">
+        <v>9</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>549.31448999999998</v>
+      </c>
+      <c r="B164">
+        <v>189183626.0859375</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164">
+        <v>26</v>
+      </c>
+      <c r="H164">
+        <v>11</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164">
+        <f>H164-I164</f>
+        <v>8</v>
+      </c>
+      <c r="K164">
+        <v>10</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>575.96677999999997</v>
+      </c>
+      <c r="B165">
+        <v>130779006.76660161</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165">
+        <v>25</v>
+      </c>
+      <c r="H165">
+        <v>12</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="J165">
+        <f>H165-I165</f>
+        <v>9</v>
+      </c>
+      <c r="K165">
+        <v>10</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>583.28971999999999</v>
+      </c>
+      <c r="B166">
+        <v>91174750.125</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166">
+        <v>25</v>
+      </c>
+      <c r="H166">
+        <v>12</v>
+      </c>
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="J166">
+        <f>H166-I166</f>
+        <v>9</v>
+      </c>
+      <c r="K166">
+        <v>10</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>556.63963999999999</v>
+      </c>
+      <c r="B167">
+        <v>75976967.86328125</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167">
+        <v>26</v>
+      </c>
+      <c r="H167">
+        <v>11</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="J167">
+        <f>H167-I167</f>
+        <v>8</v>
+      </c>
+      <c r="K167">
+        <v>10</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>590.61919999999998</v>
+      </c>
+      <c r="B168">
+        <v>34090230.340820313</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168">
+        <v>25</v>
+      </c>
+      <c r="H168">
+        <v>12</v>
+      </c>
+      <c r="I168">
+        <v>3</v>
+      </c>
+      <c r="J168">
+        <f>H168-I168</f>
+        <v>9</v>
+      </c>
+      <c r="K168">
+        <v>10</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>563.96749</v>
+      </c>
+      <c r="B169">
+        <v>24650505.3671875</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169">
+        <v>26</v>
+      </c>
+      <c r="H169">
+        <v>11</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169">
+        <f>H169-I169</f>
+        <v>8</v>
+      </c>
+      <c r="K169">
+        <v>10</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>597.94705999999996</v>
+      </c>
+      <c r="B170">
+        <v>12609692.537353519</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170">
+        <v>25</v>
+      </c>
+      <c r="H170">
+        <v>12</v>
+      </c>
+      <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="J170">
+        <f>H170-I170</f>
+        <v>9</v>
+      </c>
+      <c r="K170">
+        <v>10</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>571.29596000000004</v>
+      </c>
+      <c r="B171">
+        <v>8232424.8359375</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171">
+        <v>26</v>
+      </c>
+      <c r="H171">
+        <v>11</v>
+      </c>
+      <c r="I171">
+        <v>3</v>
+      </c>
+      <c r="J171">
+        <f>H171-I171</f>
+        <v>8</v>
+      </c>
+      <c r="K171">
+        <v>10</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>605.27473999999995</v>
+      </c>
+      <c r="B172">
+        <v>3568012.5922851558</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172">
+        <v>25</v>
+      </c>
+      <c r="H172">
+        <v>12</v>
+      </c>
+      <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="J172">
+        <f>H172-I172</f>
+        <v>9</v>
+      </c>
+      <c r="K172">
+        <v>10</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>578.62274000000002</v>
+      </c>
+      <c r="B173">
+        <v>2772840.091796875</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173">
+        <v>26</v>
+      </c>
+      <c r="H173">
+        <v>11</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173">
+        <f>H173-I173</f>
+        <v>8</v>
+      </c>
+      <c r="K173">
+        <v>10</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>612.60140000000001</v>
+      </c>
+      <c r="B174">
+        <v>1513189.009765625</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>8</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174">
+        <v>25</v>
+      </c>
+      <c r="H174">
+        <v>12</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <f>H174-I174</f>
+        <v>9</v>
+      </c>
+      <c r="K174">
+        <v>10</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>585.94881999999996</v>
+      </c>
+      <c r="B175">
+        <v>1077712.951171875</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>8</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175">
+        <v>26</v>
+      </c>
+      <c r="H175">
+        <v>11</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175">
+        <f>H175-I175</f>
+        <v>8</v>
+      </c>
+      <c r="K175">
+        <v>10</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>619.92763000000002</v>
+      </c>
+      <c r="B176">
+        <v>1029256.995117188</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176">
+        <v>25</v>
+      </c>
+      <c r="H176">
+        <v>12</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176">
+        <f>H176-I176</f>
+        <v>9</v>
+      </c>
+      <c r="K176">
+        <v>10</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H163" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="dA[2,3,0,9]"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:L176">
+    <sortState ref="A2:L176">
+      <sortCondition ref="K1:K176"/>
+    </sortState>
   </autoFilter>
+  <sortState ref="A10:L177">
+    <sortCondition descending="1" ref="B1:B177"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
